--- a/decal-tag/decal验证.xlsx
+++ b/decal-tag/decal验证.xlsx
@@ -24,13 +24,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>1  decal 标签验证， 配置报错的位置 。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2 测试</t>
+    <t>2 测试 对多一个属性， tga管理就会出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 验证打包是否可以打包除去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际测试 ，只要打包 带有对应的tga ，导入游戏中， 就没有问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -96,6 +108,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>227819</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>228011</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CE03040-1067-41CD-B789-9729430F0312}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="657225"/>
+          <a:ext cx="6247619" cy="4714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>18731</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104663</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EBF4B5E-6142-4660-9123-C58C7B3C4331}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6067425"/>
+          <a:ext cx="2552381" cy="895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -395,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -413,8 +518,24 @@
         <v>1</v>
       </c>
     </row>
+    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I23" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>